--- a/profile_details.xlsx
+++ b/profile_details.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,38 +458,20 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>QEGN4706</t>
+          <t>FS1A6WSR</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ALIYU SULAIMAN SALIHU</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>643514542</v>
-      </c>
-      <c r="D2" t="n">
-        <v>8067520570</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>NJTMPJ34</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>ALIYU SULAIMAN SALIHU</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>643514542</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
+          <t>Aliyu Sulaiman Salihu</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>62466453465</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>08067520570</t>
         </is>

--- a/profile_details.xlsx
+++ b/profile_details.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,14 +466,164 @@
           <t>Aliyu Sulaiman Salihu</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>62466453465</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>08067520570</t>
+      <c r="C2" t="n">
+        <v>62466453465</v>
+      </c>
+      <c r="D2" t="n">
+        <v>8067520570</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>L0HBYZLP</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>fddfbfdbfdbf</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>djhmhmhmhm</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>gfngfngfngfnn</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>9AAJ7AXX</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>85868</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>857287585</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>85287587585</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>6RJC3RAR</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Sadik Garba</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>65418468486</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5841846184</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>8GLRF3ZI</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">winner </t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>87487876</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>chukudi</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>JBVFVRBG</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>wazikii</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>8674468674</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>65841545415</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>9K9R6FIR</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>uyegfbhjgfdjhgfd</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>687615454</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6861454553</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>CFEQRNTB</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>jkjhgfhbgfhfd</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>hgfdhfgbfgjgfj</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>sdfgfdshfghgfhd</t>
         </is>
       </c>
     </row>
